--- a/output/fit_clients/fit_round_103.xlsx
+++ b/output/fit_clients/fit_round_103.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1801796472.963188</v>
+        <v>2240256519.130312</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1075976800602365</v>
+        <v>0.09227866055980612</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04301549797283027</v>
+        <v>0.02956289648244404</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>900898205.4390934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2083862976.431823</v>
+        <v>1811778644.775015</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1289719586473959</v>
+        <v>0.1588628953581219</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03164191718017383</v>
+        <v>0.04490651133116854</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1041931541.19668</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4816107340.080134</v>
+        <v>4335739684.53444</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1188208668191695</v>
+        <v>0.1038217834168082</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03643608130472167</v>
+        <v>0.03525454978276104</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>38</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2408053741.961715</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2807070603.495356</v>
+        <v>4026787384.815035</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0989087223891329</v>
+        <v>0.1036986834569309</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04406967323914473</v>
+        <v>0.03311055135447819</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>40</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1403535384.319432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2371681091.011896</v>
+        <v>2315547941.190627</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1190535993375349</v>
+        <v>0.1147427612596047</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03555359291942832</v>
+        <v>0.04174350095211215</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1185840534.799673</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2338952343.193065</v>
+        <v>2955418646.309124</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08765856826365449</v>
+        <v>0.09142496083684247</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03498823495128751</v>
+        <v>0.03670507460869035</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1169476200.047643</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2467558742.89527</v>
+        <v>2518268485.630383</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1667320476652739</v>
+        <v>0.1623390427251934</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03357880175544336</v>
+        <v>0.02291710457080271</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>33</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1233779374.47125</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1824497868.385859</v>
+        <v>1467866698.491505</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1360091483149931</v>
+        <v>0.1631557113825357</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0322498717605537</v>
+        <v>0.03733299329711603</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>912248985.0866466</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3640976456.770925</v>
+        <v>5682947778.273829</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2078782179123575</v>
+        <v>0.1502758320411423</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03759985898805795</v>
+        <v>0.04717567788805565</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>44</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1820488222.384767</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3019349710.399618</v>
+        <v>4256960967.477886</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1330071498554665</v>
+        <v>0.154562149513392</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0473145126557959</v>
+        <v>0.03645522399942789</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>43</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1509674799.399976</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2549949857.633073</v>
+        <v>2338185821.014321</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1884404537458184</v>
+        <v>0.1988383037191337</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04515587752046257</v>
+        <v>0.05244962605316882</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>36</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1274974905.539129</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5133093106.98275</v>
+        <v>3765883316.970734</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07148587717657676</v>
+        <v>0.07696134480408333</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02133898145263761</v>
+        <v>0.02560954136271608</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>35</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2566546550.799194</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2464386202.990911</v>
+        <v>2574399641.991193</v>
       </c>
       <c r="F14" t="n">
-        <v>0.133944154373523</v>
+        <v>0.1757465070829858</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02944606735475151</v>
+        <v>0.04022202946875813</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>33</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1232193174.661043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1450613754.159245</v>
+        <v>1343717729.102361</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07617998523790948</v>
+        <v>0.1021781341396038</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04916155918739215</v>
+        <v>0.03418410947657242</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>725306951.3190789</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2055341346.018984</v>
+        <v>2669193710.162149</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1149143171647721</v>
+        <v>0.09463264888088602</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04280345157843758</v>
+        <v>0.04324727683826056</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1027670743.483513</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3291490159.452388</v>
+        <v>4073087169.82394</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1620731657706071</v>
+        <v>0.133635530847428</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03919782994693471</v>
+        <v>0.04612311841775042</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>30</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1645745149.292125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2960213479.965117</v>
+        <v>2716016328.693704</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1769968499131297</v>
+        <v>0.1575790334278753</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02717658600923908</v>
+        <v>0.02922103004981552</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>34</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1480106773.054663</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1067713491.716749</v>
+        <v>1293185478.839788</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1621410494817767</v>
+        <v>0.1712696584593483</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02552277531503703</v>
+        <v>0.02138974764436433</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>533856791.4969692</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2427534354.237116</v>
+        <v>2752843449.06711</v>
       </c>
       <c r="F20" t="n">
-        <v>0.099894814658154</v>
+        <v>0.1320408349593116</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02030357352935935</v>
+        <v>0.02915604666517501</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>13</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1213767157.870336</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2714814316.906031</v>
+        <v>2723151179.701081</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07764388120080484</v>
+        <v>0.06890856577264572</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03656778331790433</v>
+        <v>0.03411438882324495</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1357407125.977786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3271573210.421345</v>
+        <v>2881880795.93188</v>
       </c>
       <c r="F22" t="n">
-        <v>0.136666722801799</v>
+        <v>0.143025983216282</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04383056391572273</v>
+        <v>0.04707917465942856</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>28</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1635786650.41579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1458306278.069888</v>
+        <v>1031034620.685396</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1298529713065831</v>
+        <v>0.128670457328781</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03307149238467411</v>
+        <v>0.04758618126209563</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>729153131.9338063</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2936044704.921202</v>
+        <v>2970196189.138441</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1144242793822229</v>
+        <v>0.1443906790909852</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03699099501287557</v>
+        <v>0.02346794833155569</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>30</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1468022391.910579</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1153625517.289131</v>
+        <v>957022472.6646421</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1173760887589411</v>
+        <v>0.1072532954482887</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02912086749841022</v>
+        <v>0.02225195769085825</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>576812787.2191933</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>993793636.265826</v>
+        <v>1103366347.713153</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09643553924781105</v>
+        <v>0.07664723268791297</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03261024391528497</v>
+        <v>0.03564241150093023</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>496896788.6240702</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4298994430.655</v>
+        <v>2993116730.075205</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1404048769306251</v>
+        <v>0.1003272977413766</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02627998105693072</v>
+        <v>0.02143455303781228</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>25</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2149497210.588029</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3821733652.656101</v>
+        <v>2341660374.314875</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1365887257520755</v>
+        <v>0.1521234531162873</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04377254687411409</v>
+        <v>0.04049807183197422</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>33</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1910866908.796147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3757281437.471453</v>
+        <v>5493870276.583536</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1075373760264636</v>
+        <v>0.1394467029703024</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04351665823173694</v>
+        <v>0.03420331466408936</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>47</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1878640752.354997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1827235348.289454</v>
+        <v>1865028075.723363</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08681818787819733</v>
+        <v>0.1322300415197331</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02852448970587682</v>
+        <v>0.03200737456691324</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>913617691.8946202</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1265935726.191186</v>
+        <v>956098596.4597664</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07615956257361098</v>
+        <v>0.1047183925623941</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03731037171360344</v>
+        <v>0.0509662804013532</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>632967798.9754535</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1809026362.13971</v>
+        <v>1324949549.441183</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1035850353036518</v>
+        <v>0.1059505339203293</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02424623272182189</v>
+        <v>0.02846055139965809</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>904513313.3627993</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2611936614.272169</v>
+        <v>2354959609.029989</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1441374478759966</v>
+        <v>0.1578123000760746</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04666238481570766</v>
+        <v>0.06044547014694453</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>29</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1305968335.745007</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1188122964.574632</v>
+        <v>1312687070.701798</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08757761303341235</v>
+        <v>0.09272063257059888</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02025334572698138</v>
+        <v>0.02047340912906246</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>594061489.2271988</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1214612390.790927</v>
+        <v>1149618653.727061</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07711909272127104</v>
+        <v>0.08029474842417192</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0374078836151154</v>
+        <v>0.03859952635662596</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>607306166.8461363</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1992557945.021735</v>
+        <v>2440024041.97009</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1258278018911583</v>
+        <v>0.1536934137494607</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02583900931208208</v>
+        <v>0.02677730721523383</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>26</v>
-      </c>
-      <c r="J36" t="n">
-        <v>996279035.085983</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1824594547.778882</v>
+        <v>2521997573.816968</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09055883742132612</v>
+        <v>0.1115837349433434</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03223674809790907</v>
+        <v>0.03882466232371894</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>27</v>
-      </c>
-      <c r="J37" t="n">
-        <v>912297276.9703209</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1370708642.096629</v>
+        <v>2067143709.375895</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1191078476040647</v>
+        <v>0.08007774947451657</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03659233035106534</v>
+        <v>0.02624162248862549</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>685354388.4955522</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1651611681.000864</v>
+        <v>1401931600.597238</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1610149503648128</v>
+        <v>0.1769555756917245</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01991624760479745</v>
+        <v>0.02835697037066985</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>825805887.8528639</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1334398367.758752</v>
+        <v>1741505155.650588</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1321187413500527</v>
+        <v>0.1413116415255269</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04311345887074217</v>
+        <v>0.05722552334658521</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>667199191.4863439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2882710482.773926</v>
+        <v>2621000222.597993</v>
       </c>
       <c r="F41" t="n">
-        <v>0.132602402996119</v>
+        <v>0.1499974258793416</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03787252021208907</v>
+        <v>0.04279236065788437</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1441355229.133412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2808390125.948414</v>
+        <v>3396168272.506275</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1227242158059727</v>
+        <v>0.09342330248605438</v>
       </c>
       <c r="G42" t="n">
-        <v>0.046542660955972</v>
+        <v>0.04419152554807174</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>34</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1404195010.145685</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2471579021.381129</v>
+        <v>2269937023.3674</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1260546629245791</v>
+        <v>0.1441056656060692</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02209157633884499</v>
+        <v>0.02136067956681352</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>32</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1235789562.144871</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1491124558.484811</v>
+        <v>1811775665.360783</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1011800794749508</v>
+        <v>0.07445149272069704</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02954008242466076</v>
+        <v>0.03092709630122326</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>745562283.9741195</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1976052679.865451</v>
+        <v>1563810933.478097</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1280005966572557</v>
+        <v>0.1816083016167327</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05171390562030081</v>
+        <v>0.03417324625046851</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>988026328.3498365</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4719049419.84639</v>
+        <v>3675837164.723134</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1682949073414813</v>
+        <v>0.1173539173442162</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04058938589254915</v>
+        <v>0.05297201900224888</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>37</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2359524720.591103</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3334202293.522276</v>
+        <v>3405705575.580742</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1690544754331458</v>
+        <v>0.1865750493451463</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05064929722567788</v>
+        <v>0.04905276397425209</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>28</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1667101108.094534</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3509930168.996389</v>
+        <v>3328831904.7219</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1069155957918942</v>
+        <v>0.1090260993284485</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03465680926040449</v>
+        <v>0.03923677404156233</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>37</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1754965147.27052</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1861962791.085767</v>
+        <v>1481529868.131463</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1663583988665657</v>
+        <v>0.1938327760339646</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02764501106588486</v>
+        <v>0.04462584814117133</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>930981371.2224839</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3121338746.613055</v>
+        <v>2791046183.626194</v>
       </c>
       <c r="F50" t="n">
-        <v>0.136333034729169</v>
+        <v>0.1584190965510535</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04807628221863564</v>
+        <v>0.05286660971431142</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>35</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1560669424.443727</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1293933902.820398</v>
+        <v>1184165574.663896</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1930471077471676</v>
+        <v>0.1662873732120286</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04308278937795554</v>
+        <v>0.04659358832404481</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>646966987.6812601</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3994645310.304811</v>
+        <v>4996812607.957716</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1104180954127051</v>
+        <v>0.1096977036112849</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05768690291408266</v>
+        <v>0.038690405770129</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>43</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1997322711.88346</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2544738728.096262</v>
+        <v>3015242122.145565</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2038638360285215</v>
+        <v>0.1640778402721997</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03002888796864203</v>
+        <v>0.03329054914325705</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>30</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1272369427.822288</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3731650938.071741</v>
+        <v>4589479392.609605</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1684172586434467</v>
+        <v>0.1436959439798917</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04904537206748862</v>
+        <v>0.03322533168163379</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>35</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1865825511.950195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3412703742.46128</v>
+        <v>3888582564.203423</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2171338047855957</v>
+        <v>0.1700151536109054</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01993182369213289</v>
+        <v>0.02010802836956762</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1706351820.126007</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1151118999.360613</v>
+        <v>1534431982.824962</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1309001496619709</v>
+        <v>0.1016585245704308</v>
       </c>
       <c r="G56" t="n">
-        <v>0.047391758361631</v>
+        <v>0.04257436143014614</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>575559593.5777987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3233497096.325122</v>
+        <v>3839762433.609598</v>
       </c>
       <c r="F57" t="n">
-        <v>0.155198445762887</v>
+        <v>0.1690218788269903</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02425372766675981</v>
+        <v>0.02684576653234519</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>33</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1616748572.118382</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1174079604.442763</v>
+        <v>1219913269.38768</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1926983571949674</v>
+        <v>0.176628483223825</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0336703783361229</v>
+        <v>0.03702054705660732</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>587039863.0188265</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4228282358.137421</v>
+        <v>3284040013.309553</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1270748575119557</v>
+        <v>0.1297190561808641</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03525730228413802</v>
+        <v>0.03581907243382648</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>30</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2114141143.938644</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3061275183.891319</v>
+        <v>3484852984.831738</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2061999858975377</v>
+        <v>0.1538330006548797</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03118533408179992</v>
+        <v>0.02257501559388275</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>33</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1530637668.653744</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2260721010.633764</v>
+        <v>3316932758.468014</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1361140899466236</v>
+        <v>0.1249660456093901</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02491469156352519</v>
+        <v>0.0225404431576617</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>37</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1130360555.426238</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1759699150.127738</v>
+        <v>1274918168.618338</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1904054593367054</v>
+        <v>0.1673114321617499</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03716258626099211</v>
+        <v>0.0321039582876967</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>879849597.0320714</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4737558105.56523</v>
+        <v>4007082393.796143</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1006042234205467</v>
+        <v>0.1036983919159168</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04655052447897396</v>
+        <v>0.03920347690049154</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>29</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2368779082.184983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3623093717.272794</v>
+        <v>3365323580.96721</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1547965658639956</v>
+        <v>0.1622439470086564</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02423454706146853</v>
+        <v>0.02444340965653103</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>32</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1811546867.921082</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3944038507.562371</v>
+        <v>4448629527.474607</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1191726410594992</v>
+        <v>0.1516645265447734</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02474661899151115</v>
+        <v>0.02254619484546845</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>37</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1972019275.606043</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3968480567.69314</v>
+        <v>4896832286.304967</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1201869845861144</v>
+        <v>0.1129777853400907</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0314209887816346</v>
+        <v>0.04761514767586321</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>30</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1984240255.657327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3220172855.997881</v>
+        <v>3359939324.87644</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09095513880562564</v>
+        <v>0.08436484999291032</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03848832513792315</v>
+        <v>0.04851073946056633</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>33</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1610086427.586934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5833866762.479656</v>
+        <v>5076167603.976022</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1462522809092882</v>
+        <v>0.1473688036714412</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03697067956102622</v>
+        <v>0.03863792518994613</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>33</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2916933488.08497</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2384450882.525066</v>
+        <v>2106173954.97645</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1650054224577933</v>
+        <v>0.1228282599382484</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04394105158907301</v>
+        <v>0.05237525186019321</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1192225495.859174</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3497285169.289674</v>
+        <v>2530875133.468005</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06514556622576353</v>
+        <v>0.08388338650514597</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04828530033190684</v>
+        <v>0.03963513542207867</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>30</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1748642593.904684</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4043334451.363275</v>
+        <v>4193515508.537204</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1554799755962452</v>
+        <v>0.1775724767019119</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02529438541840622</v>
+        <v>0.02612271389689656</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>38</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2021667259.886129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1770361245.809532</v>
+        <v>2057739983.669569</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09084773174916221</v>
+        <v>0.07622478863164014</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04628230473830187</v>
+        <v>0.0448017224924453</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>885180606.2373416</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2236382951.445425</v>
+        <v>3373939455.716803</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06883215275237883</v>
+        <v>0.08674290096583519</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03339135160764807</v>
+        <v>0.03259894890965181</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>40</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1118191541.545211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3575972447.547789</v>
+        <v>2874407811.646327</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1644849304205668</v>
+        <v>0.1670781545507468</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03172728672005411</v>
+        <v>0.02724140684594255</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>35</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1787986239.332206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1898293400.198551</v>
+        <v>2456994949.636404</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1463537553874882</v>
+        <v>0.1473378252298248</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03674383569941816</v>
+        <v>0.03673510464229248</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>949146673.8067051</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4482158659.838532</v>
+        <v>4418772930.538514</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1219464837753203</v>
+        <v>0.08210093564238864</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02596732613304857</v>
+        <v>0.03108738113272197</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>23</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2241079334.815955</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2132910056.566078</v>
+        <v>1662857592.969879</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1306543297653785</v>
+        <v>0.1854446007590716</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02193605240350462</v>
+        <v>0.02807428400288316</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1066455109.395906</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4808460666.546008</v>
+        <v>3481909853.009723</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1287887648807709</v>
+        <v>0.08566439702579522</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05057417107848843</v>
+        <v>0.05097148958972032</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>37</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2404230241.072397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1374511072.198003</v>
+        <v>1733711675.363014</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1131381997249462</v>
+        <v>0.1366965050269229</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02966829788601074</v>
+        <v>0.02743791631203155</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>687255548.2896169</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3452887515.235057</v>
+        <v>5054681473.906248</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0872371768510337</v>
+        <v>0.09676283612356029</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03866183124879259</v>
+        <v>0.02480121113114302</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>22</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1726443729.830506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4882203819.965524</v>
+        <v>3185032465.652939</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08574976818405705</v>
+        <v>0.1252283180987218</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02979680445063028</v>
+        <v>0.02568862153112817</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2441101905.892102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3916383130.034733</v>
+        <v>3747681472.83267</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1846728250790023</v>
+        <v>0.1352082123935238</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02408872642804168</v>
+        <v>0.02762118955148028</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>39</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1958191609.400753</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1708002169.886288</v>
+        <v>1745271902.066304</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1274818216111872</v>
+        <v>0.1265472193557958</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04047314274593183</v>
+        <v>0.0367788679654722</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>854001033.8464892</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1938424189.177149</v>
+        <v>1713244745.275626</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07582504759160669</v>
+        <v>0.1058664217251141</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0371792521078819</v>
+        <v>0.03230378956275465</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>969212108.5704306</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2378959947.453475</v>
+        <v>2425287263.13356</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1619915528989761</v>
+        <v>0.1169464291939206</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04525087388720252</v>
+        <v>0.04240807318066588</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>37</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1189479965.268339</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2705332615.811903</v>
+        <v>1865877042.06161</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1379596086744749</v>
+        <v>0.1234889824700402</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01713874068247442</v>
+        <v>0.02481879839721664</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>10</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1352666433.525719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1173732653.482477</v>
+        <v>1247889182.765068</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1358108864373473</v>
+        <v>0.1210802296146102</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03459226109393221</v>
+        <v>0.03735643748760727</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>586866375.5217894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2561404501.514349</v>
+        <v>2457703748.454321</v>
       </c>
       <c r="F88" t="n">
-        <v>0.146722238189356</v>
+        <v>0.1544794168585181</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02730843696502984</v>
+        <v>0.03583692690409349</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>41</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1280702237.80408</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3490198677.251051</v>
+        <v>2821284979.260706</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1224156007516387</v>
+        <v>0.103733580330699</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03098488137223331</v>
+        <v>0.03627004972194429</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>35</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1745099340.739122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1526560392.547055</v>
+        <v>1805071710.750111</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08609470533482974</v>
+        <v>0.1027379714425064</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04715247947409147</v>
+        <v>0.04984436633430499</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>763280179.8221258</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1737529625.140281</v>
+        <v>1722463036.719929</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1566056755324401</v>
+        <v>0.1802848741863792</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05165945148555234</v>
+        <v>0.04151488675589783</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>868764819.7588603</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2669598945.760743</v>
+        <v>2115298227.414539</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06785306993301592</v>
+        <v>0.0669922253575131</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03179639184720081</v>
+        <v>0.03521660345000097</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>21</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1334799469.571324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4363687436.143453</v>
+        <v>4229061053.282348</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1096611145884278</v>
+        <v>0.1292526167845895</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04591586981584352</v>
+        <v>0.04049616216520293</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>31</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2181843695.127418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1664956148.195121</v>
+        <v>2246924937.197048</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1052481487691507</v>
+        <v>0.1580717846890046</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03406572142408775</v>
+        <v>0.03052497957077877</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>832478028.8282644</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2845892948.377864</v>
+        <v>2975139275.253651</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1309423505734541</v>
+        <v>0.1382070743391123</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03769599081272892</v>
+        <v>0.03985528672558973</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>24</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1422946485.065329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1456252039.09883</v>
+        <v>2073196998.92744</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1029354192212244</v>
+        <v>0.1258936150263797</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03371814363497126</v>
+        <v>0.03955492896739608</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>728126064.5177886</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4314895378.474231</v>
+        <v>3243193071.137514</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1285968478271894</v>
+        <v>0.1709684795985051</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02797509044260773</v>
+        <v>0.02683844945556801</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>33</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2157447770.873709</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3312884639.725416</v>
+        <v>3307424283.473979</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1286492391157264</v>
+        <v>0.09961541914399057</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03103740296758841</v>
+        <v>0.03083963290154038</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>27</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1656442325.708763</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2654660462.146912</v>
+        <v>2730914725.326401</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09724100833650706</v>
+        <v>0.121304971522264</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02273235768048798</v>
+        <v>0.02825803210167924</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>32</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1327330191.962851</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4323087756.457134</v>
+        <v>3308805071.258019</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1399864418132017</v>
+        <v>0.1504783283956076</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02134347688028345</v>
+        <v>0.02405648859851459</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>32</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2161543974.624341</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2342993544.206382</v>
+        <v>3233852190.150224</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1833733469040303</v>
+        <v>0.137006200808139</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05278180213819912</v>
+        <v>0.05558372449834641</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>43</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1171496774.30212</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_103.xlsx
+++ b/output/fit_clients/fit_round_103.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2240256519.130312</v>
+        <v>1689775498.194439</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09227866055980612</v>
+        <v>0.09314067619326741</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02956289648244404</v>
+        <v>0.04501897536369658</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1811778644.775015</v>
+        <v>2053122979.956923</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1588628953581219</v>
+        <v>0.1469508433313559</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04490651133116854</v>
+        <v>0.04152083871325189</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4335739684.53444</v>
+        <v>5172013877.82106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1038217834168082</v>
+        <v>0.1569097289213637</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03525454978276104</v>
+        <v>0.0275293329485677</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4026787384.815035</v>
+        <v>3824804407.085768</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1036986834569309</v>
+        <v>0.107375195291468</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03311055135447819</v>
+        <v>0.03221072052502454</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2315547941.190627</v>
+        <v>2531570633.577052</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1147427612596047</v>
+        <v>0.1083575121886349</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04174350095211215</v>
+        <v>0.043496335263259</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2955418646.309124</v>
+        <v>2268794110.383508</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09142496083684247</v>
+        <v>0.06885045274495731</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03670507460869035</v>
+        <v>0.04064816724866109</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2518268485.630383</v>
+        <v>2798141823.745889</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1623390427251934</v>
+        <v>0.1768339030483823</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02291710457080271</v>
+        <v>0.02141674864126176</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1467866698.491505</v>
+        <v>2050262471.729492</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1631557113825357</v>
+        <v>0.1435904988287717</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03733299329711603</v>
+        <v>0.03101825048762429</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5682947778.273829</v>
+        <v>4751613115.530357</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1502758320411423</v>
+        <v>0.1548482153848333</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04717567788805565</v>
+        <v>0.04488195836511244</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4256960967.477886</v>
+        <v>3952361152.791958</v>
       </c>
       <c r="F11" t="n">
-        <v>0.154562149513392</v>
+        <v>0.1760944157936257</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03645522399942789</v>
+        <v>0.0490468054287584</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2338185821.014321</v>
+        <v>3079323305.128738</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1988383037191337</v>
+        <v>0.1315066227550828</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05244962605316882</v>
+        <v>0.03873298663259846</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3765883316.970734</v>
+        <v>4371177282.668694</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07696134480408333</v>
+        <v>0.08631376002206194</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02560954136271608</v>
+        <v>0.0208415153410046</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2574399641.991193</v>
+        <v>3304091817.229225</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1757465070829858</v>
+        <v>0.1827217037134385</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04022202946875813</v>
+        <v>0.03125658669671023</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1343717729.102361</v>
+        <v>1673505913.36945</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1021781341396038</v>
+        <v>0.08892576586846898</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03418410947657242</v>
+        <v>0.04135603846366351</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2669193710.162149</v>
+        <v>1976035658.013798</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09463264888088602</v>
+        <v>0.1154141788093385</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04324727683826056</v>
+        <v>0.04210682724549532</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4073087169.82394</v>
+        <v>3843938559.446973</v>
       </c>
       <c r="F17" t="n">
-        <v>0.133635530847428</v>
+        <v>0.134810261986549</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04612311841775042</v>
+        <v>0.041531569656138</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2716016328.693704</v>
+        <v>2974597387.40739</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1575790334278753</v>
+        <v>0.1350746182337109</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02922103004981552</v>
+        <v>0.02784781661605322</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1293185478.839788</v>
+        <v>857633568.2834965</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1712696584593483</v>
+        <v>0.1204206282972008</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02138974764436433</v>
+        <v>0.02677206407924454</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2752843449.06711</v>
+        <v>2587259364.97997</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1320408349593116</v>
+        <v>0.1156716847042465</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02915604666517501</v>
+        <v>0.01990538968749467</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2723151179.701081</v>
+        <v>1968642167.61749</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06890856577264572</v>
+        <v>0.1021892323387424</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03411438882324495</v>
+        <v>0.04188449029181639</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2881880795.93188</v>
+        <v>3129203041.734786</v>
       </c>
       <c r="F22" t="n">
-        <v>0.143025983216282</v>
+        <v>0.10975566884464</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04707917465942856</v>
+        <v>0.05515101777194809</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1031034620.685396</v>
+        <v>968322532.6206352</v>
       </c>
       <c r="F23" t="n">
-        <v>0.128670457328781</v>
+        <v>0.1586600542489233</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04758618126209563</v>
+        <v>0.04807082164033896</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2970196189.138441</v>
+        <v>2672579830.969125</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1443906790909852</v>
+        <v>0.1377731132411567</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02346794833155569</v>
+        <v>0.02271052033258996</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>957022472.6646421</v>
+        <v>1131304241.674939</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1072532954482887</v>
+        <v>0.08036455026072716</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02225195769085825</v>
+        <v>0.01906972555705945</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1103366347.713153</v>
+        <v>1366223582.178222</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07664723268791297</v>
+        <v>0.07660524799647205</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03564241150093023</v>
+        <v>0.02859304610821202</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2993116730.075205</v>
+        <v>3002930231.034855</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1003272977413766</v>
+        <v>0.09750518345961459</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02143455303781228</v>
+        <v>0.01734546863051252</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2341660374.314875</v>
+        <v>2673313473.771422</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1521234531162873</v>
+        <v>0.1307466134906533</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04049807183197422</v>
+        <v>0.0333383280151885</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5493870276.583536</v>
+        <v>5775813182.040438</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1394467029703024</v>
+        <v>0.1397732962747087</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03420331466408936</v>
+        <v>0.03934564963658151</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1865028075.723363</v>
+        <v>1724638096.639527</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1322300415197331</v>
+        <v>0.1237379203240002</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03200737456691324</v>
+        <v>0.02805697560330093</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>956098596.4597664</v>
+        <v>915661655.9737815</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1047183925623941</v>
+        <v>0.07066016029494082</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0509662804013532</v>
+        <v>0.0365979442842983</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1324949549.441183</v>
+        <v>1656670227.127481</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1059505339203293</v>
+        <v>0.1080810607081622</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02846055139965809</v>
+        <v>0.02590091149557622</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2354959609.029989</v>
+        <v>2413938523.566976</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1578123000760746</v>
+        <v>0.1975204435389696</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06044547014694453</v>
+        <v>0.05898341572902061</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1312687070.701798</v>
+        <v>1206380556.974703</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09272063257059888</v>
+        <v>0.07915686142126721</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02047340912906246</v>
+        <v>0.01863336313430637</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1149618653.727061</v>
+        <v>999783033.248199</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08029474842417192</v>
+        <v>0.1168247711851319</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03859952635662596</v>
+        <v>0.02986151655777242</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2440024041.97009</v>
+        <v>2548588344.062667</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1536934137494607</v>
+        <v>0.1587454152721696</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02677730721523383</v>
+        <v>0.02767258773630757</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2521997573.816968</v>
+        <v>2925951992.750394</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1115837349433434</v>
+        <v>0.1114703611155174</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03882466232371894</v>
+        <v>0.02750282636375706</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2067143709.375895</v>
+        <v>1477856993.87196</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08007774947451657</v>
+        <v>0.08303268806815763</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02624162248862549</v>
+        <v>0.03016716934529949</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1401931600.597238</v>
+        <v>2056394968.832006</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1769555756917245</v>
+        <v>0.1911559837321479</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02835697037066985</v>
+        <v>0.02786600292263998</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1741505155.650588</v>
+        <v>1256380957.545077</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1413116415255269</v>
+        <v>0.1121650308018122</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05722552334658521</v>
+        <v>0.05944303433115151</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2621000222.597993</v>
+        <v>2079400904.088973</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1499974258793416</v>
+        <v>0.1115208804432683</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04279236065788437</v>
+        <v>0.04216070622939681</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3396168272.506275</v>
+        <v>3772761240.473336</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09342330248605438</v>
+        <v>0.089161708407631</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04419152554807174</v>
+        <v>0.03999974579583257</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2269937023.3674</v>
+        <v>2675300519.041642</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1441056656060692</v>
+        <v>0.1239112120566509</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02136067956681352</v>
+        <v>0.02583124863814337</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1811775665.360783</v>
+        <v>2275042416.012654</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07445149272069704</v>
+        <v>0.08728023791359467</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03092709630122326</v>
+        <v>0.02771292151474143</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1563810933.478097</v>
+        <v>1994344140.278977</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1816083016167327</v>
+        <v>0.1362948216862232</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03417324625046851</v>
+        <v>0.04061043109484866</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3675837164.723134</v>
+        <v>3548236611.771022</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1173539173442162</v>
+        <v>0.1522744035529076</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05297201900224888</v>
+        <v>0.04554881308733097</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3405705575.580742</v>
+        <v>3653437913.313747</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1865750493451463</v>
+        <v>0.1920751713623108</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04905276397425209</v>
+        <v>0.04830672293061315</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3328831904.7219</v>
+        <v>3163214243.731931</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1090260993284485</v>
+        <v>0.101665368926982</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03923677404156233</v>
+        <v>0.02738388833979197</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1481529868.131463</v>
+        <v>1743049489.126054</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1938327760339646</v>
+        <v>0.178134471812462</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04462584814117133</v>
+        <v>0.04443808717585346</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2791046183.626194</v>
+        <v>3568549632.174441</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1584190965510535</v>
+        <v>0.1161811695053966</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05286660971431142</v>
+        <v>0.0410934603988257</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1184165574.663896</v>
+        <v>1105005027.800554</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1662873732120286</v>
+        <v>0.1662274334538927</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04659358832404481</v>
+        <v>0.03580190898744288</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4996812607.957716</v>
+        <v>4043907749.757583</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1096977036112849</v>
+        <v>0.08832352569988076</v>
       </c>
       <c r="G52" t="n">
-        <v>0.038690405770129</v>
+        <v>0.05575805431839204</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3015242122.145565</v>
+        <v>3713974031.54508</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1640778402721997</v>
+        <v>0.2035835100922238</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03329054914325705</v>
+        <v>0.03264654450615866</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4589479392.609605</v>
+        <v>4898641629.275674</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1436959439798917</v>
+        <v>0.1575253581914052</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03322533168163379</v>
+        <v>0.0517990192555717</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3888582564.203423</v>
+        <v>4248265638.610629</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1700151536109054</v>
+        <v>0.181069159347464</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02010802836956762</v>
+        <v>0.02691628066121636</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1534431982.824962</v>
+        <v>1254360737.252667</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1016585245704308</v>
+        <v>0.1445385855247572</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04257436143014614</v>
+        <v>0.05022898973663704</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3839762433.609598</v>
+        <v>3248978945.111871</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1690218788269903</v>
+        <v>0.1401737331976132</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02684576653234519</v>
+        <v>0.02121318347797481</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1219913269.38768</v>
+        <v>1664402578.030313</v>
       </c>
       <c r="F58" t="n">
-        <v>0.176628483223825</v>
+        <v>0.1972774874448081</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03702054705660732</v>
+        <v>0.03753383954502061</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3284040013.309553</v>
+        <v>3865576811.105299</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1297190561808641</v>
+        <v>0.1309682100342043</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03581907243382648</v>
+        <v>0.03396040610679614</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3484852984.831738</v>
+        <v>2456585104.357598</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1538330006548797</v>
+        <v>0.1668624163068293</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02257501559388275</v>
+        <v>0.02562530100743901</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3316932758.468014</v>
+        <v>3187927908.545188</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1249660456093901</v>
+        <v>0.1687552587589334</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0225404431576617</v>
+        <v>0.02781377027480945</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1274918168.618338</v>
+        <v>1699587947.673101</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1673114321617499</v>
+        <v>0.1719629616611011</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0321039582876967</v>
+        <v>0.03892355523376229</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4007082393.796143</v>
+        <v>3525301314.457233</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1036983919159168</v>
+        <v>0.07393322446181916</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03920347690049154</v>
+        <v>0.04444897222031912</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3365323580.96721</v>
+        <v>5432359106.241143</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1622439470086564</v>
+        <v>0.1462774909421822</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02444340965653103</v>
+        <v>0.02370154811443123</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4448629527.474607</v>
+        <v>4392514725.173433</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1516645265447734</v>
+        <v>0.1279930731621974</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02254619484546845</v>
+        <v>0.02335014108263654</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4896832286.304967</v>
+        <v>4582226020.561279</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1129777853400907</v>
+        <v>0.1065471438690972</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04761514767586321</v>
+        <v>0.03095602057589701</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3359939324.87644</v>
+        <v>3231705411.298074</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08436484999291032</v>
+        <v>0.06572393711773945</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04851073946056633</v>
+        <v>0.03227833660596947</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5076167603.976022</v>
+        <v>5386656446.090301</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1473688036714412</v>
+        <v>0.1156146337543755</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03863792518994613</v>
+        <v>0.03501318774447104</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2106173954.97645</v>
+        <v>1905144064.195951</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1228282599382484</v>
+        <v>0.1748418288004746</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05237525186019321</v>
+        <v>0.04507411112167155</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2530875133.468005</v>
+        <v>2339626820.10503</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08388338650514597</v>
+        <v>0.07548540094300107</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03963513542207867</v>
+        <v>0.03095962493604806</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4193515508.537204</v>
+        <v>5358912613.613655</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1775724767019119</v>
+        <v>0.1514987971219246</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02612271389689656</v>
+        <v>0.02097808458109807</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2057739983.669569</v>
+        <v>1373814144.530538</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07622478863164014</v>
+        <v>0.07228933022522324</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0448017224924453</v>
+        <v>0.0497001417246491</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3373939455.716803</v>
+        <v>3053554899.593082</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08674290096583519</v>
+        <v>0.07957463003951694</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03259894890965181</v>
+        <v>0.04010207629237423</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2874407811.646327</v>
+        <v>3132634978.007314</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1670781545507468</v>
+        <v>0.1142700798773905</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02724140684594255</v>
+        <v>0.03407115665959089</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2456994949.636404</v>
+        <v>1847530822.326567</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1473378252298248</v>
+        <v>0.1240237978833302</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03673510464229248</v>
+        <v>0.03734651291523258</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4418772930.538514</v>
+        <v>3923508068.061673</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08210093564238864</v>
+        <v>0.07556362124037605</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03108738113272197</v>
+        <v>0.03001327935866379</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1662857592.969879</v>
+        <v>2199654238.906603</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1854446007590716</v>
+        <v>0.1175307798966909</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02807428400288316</v>
+        <v>0.02388234653956579</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3481909853.009723</v>
+        <v>4721426921.357711</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08566439702579522</v>
+        <v>0.1234304996260972</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05097148958972032</v>
+        <v>0.03466754449004372</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1733711675.363014</v>
+        <v>1558857344.35481</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1366965050269229</v>
+        <v>0.1248833209204438</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02743791631203155</v>
+        <v>0.02861543920119643</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5054681473.906248</v>
+        <v>4516179537.907168</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09676283612356029</v>
+        <v>0.1022676514099349</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02480121113114302</v>
+        <v>0.02425422493415245</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3185032465.652939</v>
+        <v>4507718514.675002</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1252283180987218</v>
+        <v>0.1296143252344871</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02568862153112817</v>
+        <v>0.02741765539075025</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3747681472.83267</v>
+        <v>4872207616.706883</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1352082123935238</v>
+        <v>0.1410966623655451</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02762118955148028</v>
+        <v>0.02637689060589146</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1745271902.066304</v>
+        <v>1974811610.312893</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1265472193557958</v>
+        <v>0.1093082821825734</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0367788679654722</v>
+        <v>0.04520642990914393</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1713244745.275626</v>
+        <v>2376331238.959965</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1058664217251141</v>
+        <v>0.1115454637437454</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03230378956275465</v>
+        <v>0.03517119668822501</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2425287263.13356</v>
+        <v>2500996204.163614</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1169464291939206</v>
+        <v>0.1227900652330855</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04240807318066588</v>
+        <v>0.04211615006028233</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1865877042.06161</v>
+        <v>1931126568.453083</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1234889824700402</v>
+        <v>0.1362865388923885</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02481879839721664</v>
+        <v>0.01763315582029927</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1247889182.765068</v>
+        <v>1432273194.088909</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1210802296146102</v>
+        <v>0.1740496590646614</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03735643748760727</v>
+        <v>0.03299715446643058</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2457703748.454321</v>
+        <v>3552062242.676463</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1544794168585181</v>
+        <v>0.1372629876225991</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03583692690409349</v>
+        <v>0.0315419006850297</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2821284979.260706</v>
+        <v>2178434298.579538</v>
       </c>
       <c r="F89" t="n">
-        <v>0.103733580330699</v>
+        <v>0.1288772821450014</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03627004972194429</v>
+        <v>0.03533226550359227</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1805071710.750111</v>
+        <v>1366293697.282078</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1027379714425064</v>
+        <v>0.09997494651681396</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04984436633430499</v>
+        <v>0.04593505757625462</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1722463036.719929</v>
+        <v>1888262490.046434</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1802848741863792</v>
+        <v>0.1197543454145456</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04151488675589783</v>
+        <v>0.04538105789715756</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2115298227.414539</v>
+        <v>2260134318.749969</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0669922253575131</v>
+        <v>0.1000928992064416</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03521660345000097</v>
+        <v>0.03902090415454174</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4229061053.282348</v>
+        <v>4266347004.866628</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1292526167845895</v>
+        <v>0.09292972982965979</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04049616216520293</v>
+        <v>0.03736395592410271</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2246924937.197048</v>
+        <v>1908240075.478771</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1580717846890046</v>
+        <v>0.1403268074657734</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03052497957077877</v>
+        <v>0.04022627336618216</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2975139275.253651</v>
+        <v>2160402836.54427</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1382070743391123</v>
+        <v>0.1212388287253924</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03985528672558973</v>
+        <v>0.05012910989269805</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2073196998.92744</v>
+        <v>2246120987.024455</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1258936150263797</v>
+        <v>0.1209330901851405</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03955492896739608</v>
+        <v>0.04588727217864873</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3243193071.137514</v>
+        <v>4134802698.818137</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1709684795985051</v>
+        <v>0.1190292942026384</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02683844945556801</v>
+        <v>0.02293333605888043</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3307424283.473979</v>
+        <v>3188977104.66912</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09961541914399057</v>
+        <v>0.09127090461509674</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03083963290154038</v>
+        <v>0.01978728548393977</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2730914725.326401</v>
+        <v>2693211438.666248</v>
       </c>
       <c r="F99" t="n">
-        <v>0.121304971522264</v>
+        <v>0.1206365605266792</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02825803210167924</v>
+        <v>0.02425004475299488</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3308805071.258019</v>
+        <v>4530806481.033877</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1504783283956076</v>
+        <v>0.1622121961330822</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02405648859851459</v>
+        <v>0.02138627566823065</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3233852190.150224</v>
+        <v>2867105822.225455</v>
       </c>
       <c r="F101" t="n">
-        <v>0.137006200808139</v>
+        <v>0.1567444481600496</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05558372449834641</v>
+        <v>0.04268027664529551</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_103.xlsx
+++ b/output/fit_clients/fit_round_103.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1689775498.194439</v>
+        <v>1922321110.73056</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09314067619326741</v>
+        <v>0.0695729095290331</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04501897536369658</v>
+        <v>0.0370204890946251</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2053122979.956923</v>
+        <v>2110357546.341336</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1469508433313559</v>
+        <v>0.1421733815127236</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04152083871325189</v>
+        <v>0.03197652195415576</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5172013877.82106</v>
+        <v>4209681960.731487</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1569097289213637</v>
+        <v>0.1627525574784706</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0275293329485677</v>
+        <v>0.0333714224156229</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>64</v>
+      </c>
+      <c r="J4" t="n">
+        <v>102</v>
+      </c>
+      <c r="K4" t="n">
+        <v>158.7372394541806</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3824804407.085768</v>
+        <v>3487229577.499357</v>
       </c>
       <c r="F5" t="n">
-        <v>0.107375195291468</v>
+        <v>0.06902963512488017</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03221072052502454</v>
+        <v>0.04393141161232608</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>43</v>
+      </c>
+      <c r="J5" t="n">
+        <v>103</v>
+      </c>
+      <c r="K5" t="n">
+        <v>169.6411776790799</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2531570633.577052</v>
+        <v>2852805991.673566</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1083575121886349</v>
+        <v>0.1048633001088843</v>
       </c>
       <c r="G6" t="n">
-        <v>0.043496335263259</v>
+        <v>0.03471291070447879</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2268794110.383508</v>
+        <v>2990910035.376164</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06885045274495731</v>
+        <v>0.09656534826086037</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04064816724866109</v>
+        <v>0.04493482434396879</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2798141823.745889</v>
+        <v>3867466054.831758</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1768339030483823</v>
+        <v>0.1806623960792362</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02141674864126176</v>
+        <v>0.02059142673916553</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28</v>
+      </c>
+      <c r="J8" t="n">
+        <v>103</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2050262471.729492</v>
+        <v>1435999224.348683</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1435904988287717</v>
+        <v>0.1439382538453343</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03101825048762429</v>
+        <v>0.03517835933102866</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4751613115.530357</v>
+        <v>4911802771.037092</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1548482153848333</v>
+        <v>0.1519577147451595</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04488195836511244</v>
+        <v>0.03365650720893344</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>95</v>
+      </c>
+      <c r="J10" t="n">
+        <v>103</v>
+      </c>
+      <c r="K10" t="n">
+        <v>177.822291211116</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +822,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3952361152.791958</v>
+        <v>2771368457.468913</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1760944157936257</v>
+        <v>0.1508586281251585</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0490468054287584</v>
+        <v>0.03371420536568326</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>44</v>
+      </c>
+      <c r="J11" t="n">
+        <v>102</v>
+      </c>
+      <c r="K11" t="n">
+        <v>105.838496274101</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3079323305.128738</v>
+        <v>2722513451.629581</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1315066227550828</v>
+        <v>0.1714932960957247</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03873298663259846</v>
+        <v>0.04320911026111242</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4371177282.668694</v>
+        <v>3605689026.099637</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08631376002206194</v>
+        <v>0.08150984988446289</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0208415153410046</v>
+        <v>0.01945205372220427</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>51</v>
+      </c>
+      <c r="J13" t="n">
+        <v>103</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3304091817.229225</v>
+        <v>3300389465.091471</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1827217037134385</v>
+        <v>0.1288352598230989</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03125658669671023</v>
+        <v>0.03577221022245051</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>20</v>
+      </c>
+      <c r="J14" t="n">
+        <v>101</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1673505913.36945</v>
+        <v>1589657026.923532</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08892576586846898</v>
+        <v>0.09531945854160366</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04135603846366351</v>
+        <v>0.03757317820685298</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1976035658.013798</v>
+        <v>1917682826.57673</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1154141788093385</v>
+        <v>0.07561019542440113</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04210682724549532</v>
+        <v>0.04477076242992775</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3843938559.446973</v>
+        <v>4943217181.591095</v>
       </c>
       <c r="F17" t="n">
-        <v>0.134810261986549</v>
+        <v>0.1537166330961858</v>
       </c>
       <c r="G17" t="n">
-        <v>0.041531569656138</v>
+        <v>0.04600613447037927</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>49</v>
+      </c>
+      <c r="J17" t="n">
+        <v>103</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2974597387.40739</v>
+        <v>2895063907.697861</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1350746182337109</v>
+        <v>0.1619168332350386</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02784781661605322</v>
+        <v>0.02574057032168419</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>27</v>
+      </c>
+      <c r="J18" t="n">
+        <v>101</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>857633568.2834965</v>
+        <v>1341144230.760611</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1204206282972008</v>
+        <v>0.1214839294392497</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02677206407924454</v>
+        <v>0.01940039012381591</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2587259364.97997</v>
+        <v>2461534912.021016</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1156716847042465</v>
+        <v>0.1542732633109712</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01990538968749467</v>
+        <v>0.03011575938435165</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1968642167.61749</v>
+        <v>2728467556.738255</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1021892323387424</v>
+        <v>0.07416702190293642</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04188449029181639</v>
+        <v>0.03138686918214378</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3129203041.734786</v>
+        <v>3541951346.258307</v>
       </c>
       <c r="F22" t="n">
-        <v>0.10975566884464</v>
+        <v>0.08797744606076167</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05515101777194809</v>
+        <v>0.04565222287771806</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>103</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>968322532.6206352</v>
+        <v>1040677029.052247</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1586600542489233</v>
+        <v>0.147426502282857</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04807082164033896</v>
+        <v>0.04364675479879618</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2672579830.969125</v>
+        <v>3185744425.825117</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1377731132411567</v>
+        <v>0.1347538234402931</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02271052033258996</v>
+        <v>0.02775461386566988</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>30</v>
+      </c>
+      <c r="J24" t="n">
+        <v>101</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1131304241.674939</v>
+        <v>1076024935.900032</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08036455026072716</v>
+        <v>0.08515125367921204</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01906972555705945</v>
+        <v>0.01895777557608371</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1366223582.178222</v>
+        <v>1102708595.948049</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07660524799647205</v>
+        <v>0.108905643539923</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02859304610821202</v>
+        <v>0.03260887510314083</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3002930231.034855</v>
+        <v>3934151248.176615</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09750518345961459</v>
+        <v>0.1170706856941428</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01734546863051252</v>
+        <v>0.0252494081604831</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>40</v>
+      </c>
+      <c r="J27" t="n">
+        <v>103</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2673313473.771422</v>
+        <v>3078803915.050453</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1307466134906533</v>
+        <v>0.140017248529242</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0333383280151885</v>
+        <v>0.0322797347422597</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>95</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5775813182.040438</v>
+        <v>3577574883.507574</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1397732962747087</v>
+        <v>0.1296727931798624</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03934564963658151</v>
+        <v>0.04409796864186032</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>96</v>
+      </c>
+      <c r="J29" t="n">
+        <v>103</v>
+      </c>
+      <c r="K29" t="n">
+        <v>188.2501673429928</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1724638096.639527</v>
+        <v>1878530422.399685</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1237379203240002</v>
+        <v>0.107883370040129</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02805697560330093</v>
+        <v>0.03875520504693774</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>915661655.9737815</v>
+        <v>1267127548.775</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07066016029494082</v>
+        <v>0.1100005037945364</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0365979442842983</v>
+        <v>0.04617654185974553</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1656670227.127481</v>
+        <v>1165095444.011216</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1080810607081622</v>
+        <v>0.07467401058105783</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02590091149557622</v>
+        <v>0.02600598409583475</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2413938523.566976</v>
+        <v>2868750360.390776</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1975204435389696</v>
+        <v>0.1656506080082578</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05898341572902061</v>
+        <v>0.04512128885704254</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1206380556.974703</v>
+        <v>1277140144.888001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07915686142126721</v>
+        <v>0.08655752859587965</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01863336313430637</v>
+        <v>0.02162241350718832</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>999783033.248199</v>
+        <v>857360759.3668723</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1168247711851319</v>
+        <v>0.0757479049666684</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02986151655777242</v>
+        <v>0.03107226519814036</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2548588344.062667</v>
+        <v>2786908669.091292</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1587454152721696</v>
+        <v>0.172069148719645</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02767258773630757</v>
+        <v>0.02809918883156395</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2925951992.750394</v>
+        <v>2474845439.4086</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1114703611155174</v>
+        <v>0.07004189563561124</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02750282636375706</v>
+        <v>0.02864515745819526</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1477856993.87196</v>
+        <v>1690590393.281909</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08303268806815763</v>
+        <v>0.1164248155636744</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03016716934529949</v>
+        <v>0.0389345744702886</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2056394968.832006</v>
+        <v>1627690061.430964</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1911559837321479</v>
+        <v>0.1738887665844572</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02786600292263998</v>
+        <v>0.02986269094418108</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1256380957.545077</v>
+        <v>1804287334.479714</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1121650308018122</v>
+        <v>0.1144785899173624</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05944303433115151</v>
+        <v>0.05602658948987765</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2079400904.088973</v>
+        <v>1978113138.561648</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1115208804432683</v>
+        <v>0.1627728877842494</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04216070622939681</v>
+        <v>0.03922373006754079</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3772761240.473336</v>
+        <v>3363609905.993107</v>
       </c>
       <c r="F42" t="n">
-        <v>0.089161708407631</v>
+        <v>0.123999456944046</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03999974579583257</v>
+        <v>0.03528097177837444</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>39</v>
+      </c>
+      <c r="J42" t="n">
+        <v>99</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2675300519.041642</v>
+        <v>2641584068.169972</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1239112120566509</v>
+        <v>0.1326480897189342</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02583124863814337</v>
+        <v>0.02224716118335933</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2275042416.012654</v>
+        <v>2106396277.115561</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08728023791359467</v>
+        <v>0.07966152733803515</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02771292151474143</v>
+        <v>0.03317730518166768</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1994344140.278977</v>
+        <v>1704356967.894626</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1362948216862232</v>
+        <v>0.1481267388645187</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04061043109484866</v>
+        <v>0.0380869989269068</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2051,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3548236611.771022</v>
+        <v>5396427645.209144</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1522744035529076</v>
+        <v>0.1080214993501213</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04554881308733097</v>
+        <v>0.06084499970433244</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>59</v>
+      </c>
+      <c r="J46" t="n">
+        <v>102</v>
+      </c>
+      <c r="K46" t="n">
+        <v>163.3166400976716</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3653437913.313747</v>
+        <v>3151906209.301651</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1920751713623108</v>
+        <v>0.1787960412163128</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04830672293061315</v>
+        <v>0.04628799509820211</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>45</v>
+      </c>
+      <c r="J47" t="n">
+        <v>102</v>
+      </c>
+      <c r="K47" t="n">
+        <v>103.4811377724723</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3163214243.731931</v>
+        <v>3561233895.228973</v>
       </c>
       <c r="F48" t="n">
-        <v>0.101665368926982</v>
+        <v>0.07072074814706536</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02738388833979197</v>
+        <v>0.0352353367210246</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>38</v>
+      </c>
+      <c r="J48" t="n">
+        <v>102</v>
+      </c>
+      <c r="K48" t="n">
+        <v>162.7562453402802</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1743049489.126054</v>
+        <v>1915281861.051349</v>
       </c>
       <c r="F49" t="n">
-        <v>0.178134471812462</v>
+        <v>0.1679768301212306</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04443808717585346</v>
+        <v>0.04421851136052771</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3568549632.174441</v>
+        <v>3777161833.832617</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1161811695053966</v>
+        <v>0.1207995597659295</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0410934603988257</v>
+        <v>0.04594365070075149</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>36</v>
+      </c>
+      <c r="J50" t="n">
+        <v>103</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1105005027.800554</v>
+        <v>1297290152.281209</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1662274334538927</v>
+        <v>0.1637149063376988</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03580190898744288</v>
+        <v>0.03563257410298743</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4043907749.757583</v>
+        <v>3470869260.756499</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08832352569988076</v>
+        <v>0.1110864074427849</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05575805431839204</v>
+        <v>0.05725858466037524</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>80</v>
+      </c>
+      <c r="J52" t="n">
+        <v>102</v>
+      </c>
+      <c r="K52" t="n">
+        <v>158.4724403762559</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3713974031.54508</v>
+        <v>2478869991.567713</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2035835100922238</v>
+        <v>0.1393812180043994</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03264654450615866</v>
+        <v>0.0224326375858854</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4898641629.275674</v>
+        <v>3894083568.63271</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1575253581914052</v>
+        <v>0.1303779743516935</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0517990192555717</v>
+        <v>0.04002745368373527</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>46</v>
+      </c>
+      <c r="J54" t="n">
+        <v>103</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4248265638.610629</v>
+        <v>4272560825.654041</v>
       </c>
       <c r="F55" t="n">
-        <v>0.181069159347464</v>
+        <v>0.190552877246324</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02691628066121636</v>
+        <v>0.02129676283242479</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>47</v>
+      </c>
+      <c r="J55" t="n">
+        <v>102</v>
+      </c>
+      <c r="K55" t="n">
+        <v>145.870670121954</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1254360737.252667</v>
+        <v>1787311728.072411</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1445385855247572</v>
+        <v>0.1189263440801296</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05022898973663704</v>
+        <v>0.0441164564130857</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3248978945.111871</v>
+        <v>4476211854.764218</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1401737331976132</v>
+        <v>0.163483663876351</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02121318347797481</v>
+        <v>0.02009279719242146</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>39</v>
+      </c>
+      <c r="J57" t="n">
+        <v>103</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1664402578.030313</v>
+        <v>1784355799.824553</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1972774874448081</v>
+        <v>0.1344405477559653</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03753383954502061</v>
+        <v>0.02508211436283119</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3865576811.105299</v>
+        <v>3305317449.261981</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1309682100342043</v>
+        <v>0.09815310380110094</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03396040610679614</v>
+        <v>0.03853843476889784</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>50</v>
+      </c>
+      <c r="J59" t="n">
+        <v>102</v>
+      </c>
+      <c r="K59" t="n">
+        <v>127.1398965969599</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2456585104.357598</v>
+        <v>3389166042.827023</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1668624163068293</v>
+        <v>0.1952808493963483</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02562530100743901</v>
+        <v>0.02966972713117202</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>14</v>
+      </c>
+      <c r="J60" t="n">
+        <v>97</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3187927908.545188</v>
+        <v>2123698582.891035</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1687552587589334</v>
+        <v>0.1220502933248085</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02781377027480945</v>
+        <v>0.02916980973406687</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1699587947.673101</v>
+        <v>2027473367.054667</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1719629616611011</v>
+        <v>0.1859971770618256</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03892355523376229</v>
+        <v>0.03069182531737134</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2658,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3525301314.457233</v>
+        <v>5359617817.845625</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07393322446181916</v>
+        <v>0.07569227068301479</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04444897222031912</v>
+        <v>0.04246148603049572</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>51</v>
+      </c>
+      <c r="J63" t="n">
+        <v>102</v>
+      </c>
+      <c r="K63" t="n">
+        <v>145.7319135277679</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2695,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5432359106.241143</v>
+        <v>3472713151.11516</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1462774909421822</v>
+        <v>0.1246977421925637</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02370154811443123</v>
+        <v>0.02976568013471926</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>51</v>
+      </c>
+      <c r="J64" t="n">
+        <v>102</v>
+      </c>
+      <c r="K64" t="n">
+        <v>145.4895038678085</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2732,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4392514725.173433</v>
+        <v>5922693896.14212</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1279930731621974</v>
+        <v>0.1494611810997508</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02335014108263654</v>
+        <v>0.02968678197036018</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>84</v>
+      </c>
+      <c r="J65" t="n">
+        <v>103</v>
+      </c>
+      <c r="K65" t="n">
+        <v>166.442309144494</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2769,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4582226020.561279</v>
+        <v>4893273351.497857</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1065471438690972</v>
+        <v>0.1061735674425139</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03095602057589701</v>
+        <v>0.03854259939949679</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>50</v>
+      </c>
+      <c r="J66" t="n">
+        <v>103</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3231705411.298074</v>
+        <v>3451998833.789849</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06572393711773945</v>
+        <v>0.07436340654404418</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03227833660596947</v>
+        <v>0.04977408891452295</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5386656446.090301</v>
+        <v>4657149826.095116</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1156146337543755</v>
+        <v>0.1595674017379649</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03501318774447104</v>
+        <v>0.03461306031865567</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>51</v>
+      </c>
+      <c r="J68" t="n">
+        <v>103</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1905144064.195951</v>
+        <v>2069851979.075031</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1748418288004746</v>
+        <v>0.1612908838702621</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04507411112167155</v>
+        <v>0.05970856935171318</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2339626820.10503</v>
+        <v>2340530178.617178</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07548540094300107</v>
+        <v>0.07466717548040332</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03095962493604806</v>
+        <v>0.03161814394570617</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>12</v>
+      </c>
+      <c r="J70" t="n">
+        <v>95</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5358912613.613655</v>
+        <v>4468638796.112795</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1514987971219246</v>
+        <v>0.1210379221370531</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02097808458109807</v>
+        <v>0.02319604786950243</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>84</v>
+      </c>
+      <c r="J71" t="n">
+        <v>102</v>
+      </c>
+      <c r="K71" t="n">
+        <v>165.8152998006046</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1373814144.530538</v>
+        <v>2114599874.052377</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07228933022522324</v>
+        <v>0.09792439595143405</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0497001417246491</v>
+        <v>0.0466674733408356</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3053554899.593082</v>
+        <v>2763325217.473838</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07957463003951694</v>
+        <v>0.1052401538857253</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04010207629237423</v>
+        <v>0.04914780159116931</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>98</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3132634978.007314</v>
+        <v>2515991298.325061</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1142700798773905</v>
+        <v>0.1721654324336246</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03407115665959089</v>
+        <v>0.02434476735011221</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>34</v>
+      </c>
+      <c r="J74" t="n">
+        <v>102</v>
+      </c>
+      <c r="K74" t="n">
+        <v>79.1700870413646</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1847530822.326567</v>
+        <v>1641240400.628879</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1240237978833302</v>
+        <v>0.1515055807738512</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03734651291523258</v>
+        <v>0.02328714289070997</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3923508068.061673</v>
+        <v>4333222386.878412</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07556362124037605</v>
+        <v>0.07552397135485002</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03001327935866379</v>
+        <v>0.03416969114152824</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>47</v>
+      </c>
+      <c r="J76" t="n">
+        <v>103</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2199654238.906603</v>
+        <v>2203269530.495284</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1175307798966909</v>
+        <v>0.1817721537627413</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02388234653956579</v>
+        <v>0.02698528645925983</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4721426921.357711</v>
+        <v>3454968323.708333</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1234304996260972</v>
+        <v>0.1226357482633031</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03466754449004372</v>
+        <v>0.04506090620516462</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>51</v>
+      </c>
+      <c r="J78" t="n">
+        <v>103</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1558857344.35481</v>
+        <v>1409302808.725277</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1248833209204438</v>
+        <v>0.1296887245416813</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02861543920119643</v>
+        <v>0.03469252069593493</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4516179537.907168</v>
+        <v>4853670131.6882</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1022676514099349</v>
+        <v>0.06758926932311514</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02425422493415245</v>
+        <v>0.03872664506744202</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>49</v>
+      </c>
+      <c r="J80" t="n">
+        <v>103</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4507718514.675002</v>
+        <v>4896872157.501451</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1296143252344871</v>
+        <v>0.1108551454436706</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02741765539075025</v>
+        <v>0.02812547127755841</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>47</v>
+      </c>
+      <c r="J81" t="n">
+        <v>102</v>
+      </c>
+      <c r="K81" t="n">
+        <v>135.3056070712098</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4872207616.706883</v>
+        <v>3657507933.481445</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1410966623655451</v>
+        <v>0.1319042509671473</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02637689060589146</v>
+        <v>0.02109840749330975</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>68</v>
+      </c>
+      <c r="J82" t="n">
+        <v>103</v>
+      </c>
+      <c r="K82" t="n">
+        <v>169.7529392371452</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1974811610.312893</v>
+        <v>2322912947.453783</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1093082821825734</v>
+        <v>0.1312894091821039</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04520642990914393</v>
+        <v>0.03818450688707301</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2376331238.959965</v>
+        <v>1953966283.895654</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1115454637437454</v>
+        <v>0.09810151618746808</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03517119668822501</v>
+        <v>0.04070233558611737</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2500996204.163614</v>
+        <v>2573624306.447788</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1227900652330855</v>
+        <v>0.1759286103704003</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04211615006028233</v>
+        <v>0.05101736372237523</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>18</v>
+      </c>
+      <c r="J85" t="n">
+        <v>100</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1931126568.453083</v>
+        <v>2682706883.967164</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1362865388923885</v>
+        <v>0.1729017582081397</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01763315582029927</v>
+        <v>0.01848345745082754</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1432273194.088909</v>
+        <v>977444361.1193653</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1740496590646614</v>
+        <v>0.1518645096090423</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03299715446643058</v>
+        <v>0.03988273215429034</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3552062242.676463</v>
+        <v>2702917528.823989</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1372629876225991</v>
+        <v>0.1734655629146491</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0315419006850297</v>
+        <v>0.03508055517284884</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>16</v>
+      </c>
+      <c r="J88" t="n">
+        <v>98</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2178434298.579538</v>
+        <v>2865265420.222238</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1288772821450014</v>
+        <v>0.1102184311627007</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03533226550359227</v>
+        <v>0.02697982632185665</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1366293697.282078</v>
+        <v>1640994114.78705</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09997494651681396</v>
+        <v>0.1230370628077623</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04593505757625462</v>
+        <v>0.04304083276188898</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1888262490.046434</v>
+        <v>1341410244.84251</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1197543454145456</v>
+        <v>0.1337543354449093</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04538105789715756</v>
+        <v>0.05028309275605584</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2260134318.749969</v>
+        <v>2372385711.505651</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1000928992064416</v>
+        <v>0.08984237510698359</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03902090415454174</v>
+        <v>0.0428209073814553</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4266347004.866628</v>
+        <v>4569517560.283644</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09292972982965979</v>
+        <v>0.1004742392558373</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03736395592410271</v>
+        <v>0.03510117795746618</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>47</v>
+      </c>
+      <c r="J93" t="n">
+        <v>102</v>
+      </c>
+      <c r="K93" t="n">
+        <v>149.5719425985497</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1908240075.478771</v>
+        <v>1702242549.655516</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1403268074657734</v>
+        <v>0.1601804401544605</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04022627336618216</v>
+        <v>0.02682764522699971</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2160402836.54427</v>
+        <v>3074778760.257951</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1212388287253924</v>
+        <v>0.08762700915129663</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05012910989269805</v>
+        <v>0.04679266194136138</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2246120987.024455</v>
+        <v>2344153357.945363</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1209330901851405</v>
+        <v>0.1272977051786741</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04588727217864873</v>
+        <v>0.03211178118451651</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4134802698.818137</v>
+        <v>4397658829.378629</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1190292942026384</v>
+        <v>0.126804270501641</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02293333605888043</v>
+        <v>0.02863098927516509</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>49</v>
+      </c>
+      <c r="J97" t="n">
+        <v>103</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3188977104.66912</v>
+        <v>2705779935.749465</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09127090461509674</v>
+        <v>0.1027015240465377</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01978728548393977</v>
+        <v>0.02541260514249756</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>23</v>
+      </c>
+      <c r="J98" t="n">
+        <v>102</v>
+      </c>
+      <c r="K98" t="n">
+        <v>81.6265379677147</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2693211438.666248</v>
+        <v>2979162970.009624</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1206365605266792</v>
+        <v>0.09747376004429829</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02425004475299488</v>
+        <v>0.03276841243145821</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4530806481.033877</v>
+        <v>3454479827.533205</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1622121961330822</v>
+        <v>0.1294319638871204</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02138627566823065</v>
+        <v>0.02620872696293313</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>42</v>
+      </c>
+      <c r="J100" t="n">
+        <v>101</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2867105822.225455</v>
+        <v>3558253889.929706</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1567444481600496</v>
+        <v>0.1931219848571481</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04268027664529551</v>
+        <v>0.03811839072548087</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>103</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
